--- a/data/trans_dic/Q45B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02032144057555633</v>
+        <v>0.02139579479240191</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02060836196014437</v>
+        <v>0.01985209751717514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002400215512291219</v>
+        <v>0.002385592193111039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1001133461014291</v>
+        <v>0.09974593756170665</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1038013461303266</v>
+        <v>0.1026842735056408</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02492736319424815</v>
+        <v>0.02450867146597458</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05802935703417455</v>
+        <v>0.05899437039900796</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06255563984437396</v>
+        <v>0.06210309007397855</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01526608868617103</v>
+        <v>0.0142123048460338</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05910243580663084</v>
+        <v>0.05968697662956546</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06185401055267299</v>
+        <v>0.06046535399295833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02346375704398019</v>
+        <v>0.0236372831113956</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1810587859109806</v>
+        <v>0.1816837606432198</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1903736875414097</v>
+        <v>0.1898807454511448</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06893242738469298</v>
+        <v>0.06939598290437173</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09869203951295694</v>
+        <v>0.09593038325894261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1035431212939055</v>
+        <v>0.1034241680573718</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03630768739176942</v>
+        <v>0.03756370962816213</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002407356753963519</v>
+        <v>0.00238487463389685</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01209439255623942</v>
+        <v>0.01277543858549783</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.147724646170164</v>
+        <v>0.1485509879806909</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1071975976909971</v>
+        <v>0.105586564400411</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02554029843496794</v>
+        <v>0.02380107236788551</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07925584258525559</v>
+        <v>0.07655403162222352</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05961038809390101</v>
+        <v>0.05942499378982897</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01440634603219356</v>
+        <v>0.01479616971848454</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02378362089614543</v>
+        <v>0.02195784284219634</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04221382302295421</v>
+        <v>0.04596559870087039</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01738021880299738</v>
+        <v>0.01840147075349731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2317042546065579</v>
+        <v>0.2306423208617776</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1859576303130814</v>
+        <v>0.1848864398279018</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06782256366390584</v>
+        <v>0.070079595528507</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1249180742778162</v>
+        <v>0.1209971165390487</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0988566826400228</v>
+        <v>0.1000016830125076</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03558565003204664</v>
+        <v>0.03667974602270717</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0117397688024352</v>
+        <v>0.01184846374931851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01756601407982703</v>
+        <v>0.01726147197815262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001915573087672456</v>
+        <v>0.001960947198818204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0702172003153953</v>
+        <v>0.0702398781812183</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06932433847664712</v>
+        <v>0.07158819491393439</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03263341005619034</v>
+        <v>0.03366564139352551</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03077611505542606</v>
+        <v>0.02974722811421585</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03845517497642981</v>
+        <v>0.03641477377965826</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0126011938734524</v>
+        <v>0.01222967629187561</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03826027598827507</v>
+        <v>0.03949363668058382</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04413966849555653</v>
+        <v>0.04474583373981399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0175624895766729</v>
+        <v>0.01777818755022218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1640988412990399</v>
+        <v>0.165343396215526</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1458979671084397</v>
+        <v>0.1497614714877578</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1066019877325181</v>
+        <v>0.1102647108080477</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06122102130535507</v>
+        <v>0.06022086558982013</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06797182276019423</v>
+        <v>0.06600765627974242</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03397336856269852</v>
+        <v>0.03389543282929602</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01033092542989494</v>
+        <v>0.01061375218301312</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01684289057517688</v>
+        <v>0.01781667364887328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00518880667738758</v>
+        <v>0.00512959268962419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06343570837268313</v>
+        <v>0.06515124102019171</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06395004610337762</v>
+        <v>0.06264486127953782</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04493983666441427</v>
+        <v>0.04403359317759221</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03318826517373951</v>
+        <v>0.03267148135082799</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03932283698531651</v>
+        <v>0.03995755936020127</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02313814878283619</v>
+        <v>0.02361798148056871</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02599585602767948</v>
+        <v>0.02619893712988133</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03628228259290414</v>
+        <v>0.03685558980797388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0163463040446157</v>
+        <v>0.01679017652755692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1058883638185602</v>
+        <v>0.1046418978011911</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1029040127801974</v>
+        <v>0.1024191068979014</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07665328077913768</v>
+        <v>0.07636403477164243</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05109557068507789</v>
+        <v>0.05049799831552197</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05994204351557656</v>
+        <v>0.0597108856225716</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03878270874343782</v>
+        <v>0.03826119805993013</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008651776582769603</v>
+        <v>0.008282114915785158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00547547975027002</v>
+        <v>0.003758174096535856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006199108600875791</v>
+        <v>0.006289832307814772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02992576462465999</v>
+        <v>0.03061076402443031</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02361298374089003</v>
+        <v>0.02398238286356675</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0135783969898263</v>
+        <v>0.01362621353745899</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02636950844181248</v>
+        <v>0.02510123431319543</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01819131943942711</v>
+        <v>0.01839824819824964</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01143205355144996</v>
+        <v>0.01214945820289472</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04293790841073631</v>
+        <v>0.04355137837063853</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02683981005629428</v>
+        <v>0.02438616825254939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02389941860759916</v>
+        <v>0.0243931718382722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06724525141353219</v>
+        <v>0.06625518261803108</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05317501368882822</v>
+        <v>0.05127494482111693</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03624430384437914</v>
+        <v>0.03497711885005546</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0535840072138754</v>
+        <v>0.05151218608297447</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03564709717354404</v>
+        <v>0.03686085657004717</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02678848106196233</v>
+        <v>0.02671039936524913</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003332768456265608</v>
+        <v>0.00338137456334429</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007488580952199223</v>
+        <v>0.01050642167102761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003390547427350485</v>
+        <v>0.003359129102086696</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03054482682915639</v>
+        <v>0.02882126304256535</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03460451212811971</v>
+        <v>0.03476281350012707</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01099112083505134</v>
+        <v>0.01113403308598676</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02565397380983357</v>
+        <v>0.02600409885638761</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03204262843205068</v>
+        <v>0.03173738708862413</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009982443848605816</v>
+        <v>0.009680142889213405</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03096066651359989</v>
+        <v>0.03191658295500936</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04738626506884237</v>
+        <v>0.05007242292835297</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02880703699080895</v>
+        <v>0.02933070347345337</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05099694722478618</v>
+        <v>0.0508531599364901</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06026121716259045</v>
+        <v>0.05953139096852309</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02673078525278966</v>
+        <v>0.02773529384865928</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04394481303090169</v>
+        <v>0.04400473925571163</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05404989305988691</v>
+        <v>0.05285592015017115</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02376693141022209</v>
+        <v>0.02369959675883953</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01549487636475821</v>
+        <v>0.01533597939521722</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02009677459948749</v>
+        <v>0.02004198494907863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006500762887299191</v>
+        <v>0.006686681191487512</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06891961316962406</v>
+        <v>0.06870990490519485</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06514045163681922</v>
+        <v>0.06586787287134889</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02975407932140585</v>
+        <v>0.02942505453683105</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04442744266160074</v>
+        <v>0.04415224080569869</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04536852440012524</v>
+        <v>0.04497033204306882</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0194477546515848</v>
+        <v>0.01940478417052688</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02594969934366784</v>
+        <v>0.02559310730464222</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03138630586327855</v>
+        <v>0.03106562037610244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01308017036419113</v>
+        <v>0.01363446165819086</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08666393465587108</v>
+        <v>0.08828896711195139</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08276056244519196</v>
+        <v>0.08307317890298549</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04233610102932739</v>
+        <v>0.04194349858308602</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05492060787189885</v>
+        <v>0.05501630204026813</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05574709162922609</v>
+        <v>0.05552865484609441</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02647438820803309</v>
+        <v>0.02668278589499867</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9628</v>
+        <v>10137</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8987</v>
+        <v>8657</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30703</v>
+        <v>30590</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>32548</v>
+        <v>32197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8651</v>
+        <v>8506</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>45289</v>
+        <v>46043</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46893</v>
+        <v>46554</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11849</v>
+        <v>11031</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28001</v>
+        <v>28278</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26972</v>
+        <v>26367</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10068</v>
+        <v>10143</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55527</v>
+        <v>55719</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59693</v>
+        <v>59539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23923</v>
+        <v>24084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>77025</v>
+        <v>74870</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>77618</v>
+        <v>77529</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28180</v>
+        <v>29155</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5053</v>
+        <v>5337</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54934</v>
+        <v>55241</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36107</v>
+        <v>35564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9480</v>
+        <v>8834</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>58554</v>
+        <v>56558</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44983</v>
+        <v>44843</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10674</v>
+        <v>10963</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8727</v>
+        <v>8057</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17636</v>
+        <v>19204</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6427</v>
+        <v>6804</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>86163</v>
+        <v>85768</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>62636</v>
+        <v>62275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25173</v>
+        <v>26011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>92289</v>
+        <v>89393</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74599</v>
+        <v>75463</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26367</v>
+        <v>27177</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6368</v>
+        <v>6426</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10985</v>
+        <v>10795</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11781</v>
+        <v>11785</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18033</v>
+        <v>18622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5394</v>
+        <v>5564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21856</v>
+        <v>21126</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>34051</v>
+        <v>32245</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8646</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20752</v>
+        <v>21421</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27603</v>
+        <v>27982</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9147</v>
+        <v>9259</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27533</v>
+        <v>27742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37952</v>
+        <v>38957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17619</v>
+        <v>18224</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43477</v>
+        <v>42767</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60188</v>
+        <v>58449</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23309</v>
+        <v>23256</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12793</v>
+        <v>13143</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19405</v>
+        <v>20527</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5955</v>
+        <v>5887</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45311</v>
+        <v>46537</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>48902</v>
+        <v>47904</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36909</v>
+        <v>36164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>64804</v>
+        <v>63795</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75373</v>
+        <v>76590</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45556</v>
+        <v>46501</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32192</v>
+        <v>32443</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41801</v>
+        <v>42461</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18759</v>
+        <v>19268</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75634</v>
+        <v>74744</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>78689</v>
+        <v>78319</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62954</v>
+        <v>62717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>99770</v>
+        <v>98603</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>114896</v>
+        <v>114453</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76359</v>
+        <v>75332</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3033</v>
+        <v>2903</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2796</v>
+        <v>1919</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3843</v>
+        <v>3899</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17020</v>
+        <v>17410</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17878</v>
+        <v>18158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9972</v>
+        <v>10007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>24242</v>
+        <v>23076</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>23062</v>
+        <v>23324</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15482</v>
+        <v>16453</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15052</v>
+        <v>15267</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13704</v>
+        <v>12451</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14815</v>
+        <v>15121</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38246</v>
+        <v>37683</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40261</v>
+        <v>38822</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>26617</v>
+        <v>25686</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>49260</v>
+        <v>47356</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45191</v>
+        <v>46730</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36278</v>
+        <v>36172</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1999</v>
+        <v>2804</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>38143</v>
+        <v>35991</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>38213</v>
+        <v>38388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11868</v>
+        <v>12022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>39686</v>
+        <v>40227</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>43936</v>
+        <v>43517</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>13613</v>
+        <v>13201</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9233</v>
+        <v>9518</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12647</v>
+        <v>13363</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8180</v>
+        <v>8329</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>63683</v>
+        <v>63503</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>66545</v>
+        <v>65739</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28863</v>
+        <v>29947</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>67981</v>
+        <v>68074</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>74111</v>
+        <v>72474</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>32411</v>
+        <v>32320</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50671</v>
+        <v>50152</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>68506</v>
+        <v>68319</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21915</v>
+        <v>22542</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>232819</v>
+        <v>232111</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>230377</v>
+        <v>232949</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>104702</v>
+        <v>103544</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>295368</v>
+        <v>293538</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>315102</v>
+        <v>312337</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>133996</v>
+        <v>133700</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>84860</v>
+        <v>83694</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>106989</v>
+        <v>105896</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44095</v>
+        <v>45964</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>292762</v>
+        <v>298251</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>292692</v>
+        <v>293798</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>148977</v>
+        <v>147595</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>365129</v>
+        <v>365766</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>387186</v>
+        <v>385669</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>182410</v>
+        <v>183845</v>
       </c>
     </row>
     <row r="32">
